--- a/Data/Processing/2024-02-02/SAKSOFT.xlsx
+++ b/Data/Processing/2024-02-02/SAKSOFT.xlsx
@@ -5322,7 +5322,7 @@
         <v>308.61</v>
       </c>
       <c r="E96">
-        <v>309.86</v>
+        <v>309.85</v>
       </c>
       <c r="F96">
         <v>318.49</v>
@@ -5334,7 +5334,7 @@
         <v>35</v>
       </c>
       <c r="I96">
-        <v>-3.02</v>
+        <v>-3.03</v>
       </c>
       <c r="J96">
         <v>1.51</v>
@@ -5346,13 +5346,13 @@
         <v>0.74</v>
       </c>
       <c r="M96">
-        <v>0.4199999999999999</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="N96">
         <v>4.86</v>
       </c>
       <c r="O96">
-        <v>241.2813636363636</v>
+        <v>241.2811363636363</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>306.41</v>
       </c>
       <c r="F97">
-        <v>309.86</v>
+        <v>309.85</v>
       </c>
       <c r="G97">
         <v>293489</v>
@@ -5393,7 +5393,7 @@
         <v>-2.95</v>
       </c>
       <c r="L97">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M97">
         <v>1.34</v>
@@ -5402,7 +5402,7 @@
         <v>4.89</v>
       </c>
       <c r="O97">
-        <v>244.0761363636363</v>
+        <v>244.0759090909091</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>3.57</v>
       </c>
       <c r="O98">
-        <v>246.1625</v>
+        <v>246.1622727272727</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>247.6240909090909</v>
+        <v>247.6238636363636</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>3.1</v>
       </c>
       <c r="O100">
-        <v>249.7988636363636</v>
+        <v>249.7986363636363</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1.07</v>
       </c>
       <c r="O101">
-        <v>252.6006818181818</v>
+        <v>252.6004545454545</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>4.4</v>
       </c>
       <c r="O102">
-        <v>255.8320454545454</v>
+        <v>255.8318181818182</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>4.8</v>
       </c>
       <c r="O103">
-        <v>258.8445454545454</v>
+        <v>258.8443181818182</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>3.68</v>
       </c>
       <c r="O104">
-        <v>261.9229545454545</v>
+        <v>261.9227272727272</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>5.42</v>
       </c>
       <c r="O105">
-        <v>264.9525</v>
+        <v>264.9522727272727</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>5.08</v>
       </c>
       <c r="O106">
-        <v>267.99</v>
+        <v>267.9897727272727</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="O107">
-        <v>270.9390909090909</v>
+        <v>270.9388636363636</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>2.33</v>
       </c>
       <c r="O108">
-        <v>273.6602272727273</v>
+        <v>273.66</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>2.21</v>
       </c>
       <c r="O109">
-        <v>276.3972727272728</v>
+        <v>276.3970454545455</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>5.1</v>
       </c>
       <c r="O110">
-        <v>279.3747727272727</v>
+        <v>279.3745454545455</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>2.12</v>
       </c>
       <c r="O111">
-        <v>282.0461363636363</v>
+        <v>282.0459090909091</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>2.84</v>
       </c>
       <c r="O112">
-        <v>284.4713636363636</v>
+        <v>284.4711363636363</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>2.87</v>
       </c>
       <c r="O113">
-        <v>286.7345454545455</v>
+        <v>286.7343181818182</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>2.42</v>
       </c>
       <c r="O114">
-        <v>289.1268181818182</v>
+        <v>289.1265909090909</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>3.68</v>
       </c>
       <c r="O115">
-        <v>291.3775</v>
+        <v>291.3772727272727</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>1.99</v>
       </c>
       <c r="O116">
-        <v>293.6938636363636</v>
+        <v>293.6936363636364</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>6.65</v>
       </c>
       <c r="O117">
-        <v>295.5875</v>
+        <v>295.5872727272727</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>3.16</v>
       </c>
       <c r="O118">
-        <v>297.3086363636364</v>
+        <v>297.3084090909091</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>2.46</v>
       </c>
       <c r="O119">
-        <v>298.9243181818182</v>
+        <v>298.9240909090909</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>2.77</v>
       </c>
       <c r="O120">
-        <v>300.4890909090909</v>
+        <v>300.4888636363636</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>2.61</v>
       </c>
       <c r="O121">
-        <v>302.2522727272727</v>
+        <v>302.2520454545455</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>5.49</v>
       </c>
       <c r="O122">
-        <v>304.0211363636363</v>
+        <v>304.0209090909091</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>4.43</v>
       </c>
       <c r="O123">
-        <v>305.6038636363637</v>
+        <v>305.6036363636364</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -6752,7 +6752,7 @@
         <v>2.26</v>
       </c>
       <c r="O124">
-        <v>307.0009090909091</v>
+        <v>307.0006818181818</v>
       </c>
       <c r="P124">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>1.58</v>
       </c>
       <c r="O125">
-        <v>308.1902272727273</v>
+        <v>308.19</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>2.23</v>
       </c>
       <c r="O126">
-        <v>309.1993181818182</v>
+        <v>309.1990909090909</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>4.6</v>
       </c>
       <c r="O127">
-        <v>309.8445454545454</v>
+        <v>309.8443181818182</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>4.5</v>
       </c>
       <c r="O128">
-        <v>310.7529545454545</v>
+        <v>310.7527272727273</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -7002,7 +7002,7 @@
         <v>2.82</v>
       </c>
       <c r="O129">
-        <v>311.9265909090909</v>
+        <v>311.9263636363636</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -7052,7 +7052,7 @@
         <v>2.67</v>
       </c>
       <c r="O130">
-        <v>312.8418181818182</v>
+        <v>312.8415909090909</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -7102,7 +7102,7 @@
         <v>7.15</v>
       </c>
       <c r="O131">
-        <v>313.7788636363636</v>
+        <v>313.7786363636363</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>6.2</v>
       </c>
       <c r="O132">
-        <v>314.7629545454545</v>
+        <v>314.7627272727273</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1.52</v>
       </c>
       <c r="O133">
-        <v>315.7961363636363</v>
+        <v>315.7959090909091</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>8.81</v>
       </c>
       <c r="O134">
-        <v>316.1088636363636</v>
+        <v>316.1086363636363</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>6.21</v>
       </c>
       <c r="O135">
-        <v>316.6629545454546</v>
+        <v>316.6627272727273</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>2.3</v>
       </c>
       <c r="O136">
-        <v>317.4518181818182</v>
+        <v>317.451590909091</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>4.44</v>
       </c>
       <c r="O137">
-        <v>317.7179545454545</v>
+        <v>317.7177272727272</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>2.75</v>
       </c>
       <c r="O138">
-        <v>317.9670454545454</v>
+        <v>317.9668181818182</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>5.23</v>
       </c>
       <c r="O139">
-        <v>318.0931818181818</v>
+        <v>318.0929545454546</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>2.83</v>
       </c>
       <c r="O155">
-        <v>322.8029545454545</v>
+        <v>322.8029545454546</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>3.42</v>
       </c>
       <c r="O166">
-        <v>327.6263636363637</v>
+        <v>327.6263636363636</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="O176">
-        <v>336.0386363636364</v>
+        <v>336.0386363636363</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <v>2.73</v>
       </c>
       <c r="O191">
-        <v>346.6004545454546</v>
+        <v>346.6004545454545</v>
       </c>
       <c r="P191">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>2.13</v>
       </c>
       <c r="O199">
-        <v>351.2520454545455</v>
+        <v>351.2520454545454</v>
       </c>
       <c r="P199">
         <v>1</v>
@@ -11702,7 +11702,7 @@
         <v>0.93</v>
       </c>
       <c r="O223">
-        <v>341.4754545454546</v>
+        <v>341.4754545454545</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>1.56</v>
       </c>
       <c r="O224">
-        <v>341.1861363636364</v>
+        <v>341.1861363636363</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>3.35</v>
       </c>
       <c r="O234">
-        <v>331.2788636363637</v>
+        <v>331.2788636363636</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>5.7</v>
       </c>
       <c r="O235">
-        <v>330.9227272727273</v>
+        <v>330.9227272727272</v>
       </c>
       <c r="P235">
         <v>1</v>
